--- a/Data/What if Polish football clubs were named after the towns where they were founded/data.xlsx
+++ b/Data/What if Polish football clubs were named after the towns where they were founded/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\maps-and-stats\Data\What if Polish football clubs were named after the towns where they were founded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC61367A-DFE8-4151-A9FB-499584A123A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B59428B-FCA9-439A-8D95-CD943EDEF8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" r:id="rId1"/>
+    <sheet name="Changed" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="127">
   <si>
     <t>Klub</t>
   </si>
@@ -405,6 +406,18 @@
   </si>
   <si>
     <t>Towarzystwo Sportowe Olympia (1923)</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>Kosmetyczna zmiana nazwy</t>
+  </si>
+  <si>
+    <t>Miejscowość założenia znajduje się w granicach obecnej miejscowości</t>
+  </si>
+  <si>
+    <t>Miejscowość założenia znajduje się poza granicami obecnej miejscowości</t>
   </si>
 </sst>
 </file>
@@ -905,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B404CB79-9C03-403E-A74A-40A253DF0421}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,16 +1001,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1114,16 +1127,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1643,6 +1656,174 @@
       </c>
       <c r="D52" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E43464-F0A5-425D-B4DD-2A005E259819}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="104.85546875" customWidth="1"/>
+    <col min="2" max="2" width="147.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="135.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
